--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H2">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>152.1031884908604</v>
+        <v>155.0390763054235</v>
       </c>
       <c r="R2">
-        <v>1368.928696417744</v>
+        <v>1395.351686748812</v>
       </c>
       <c r="S2">
-        <v>0.03002172330626241</v>
+        <v>0.02880463884700982</v>
       </c>
       <c r="T2">
-        <v>0.03002172330626241</v>
+        <v>0.02880463884700983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H3">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>224.9101918185686</v>
+        <v>179.3650684353146</v>
       </c>
       <c r="R3">
-        <v>2024.191726367118</v>
+        <v>1614.285615917832</v>
       </c>
       <c r="S3">
-        <v>0.04439217622279627</v>
+        <v>0.03332415376282594</v>
       </c>
       <c r="T3">
-        <v>0.04439217622279625</v>
+        <v>0.03332415376282596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H4">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I4">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J4">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>125.6841433653019</v>
+        <v>100.2326519473009</v>
       </c>
       <c r="R4">
-        <v>1131.157290287717</v>
+        <v>902.093867525708</v>
       </c>
       <c r="S4">
-        <v>0.02480720235739461</v>
+        <v>0.01862217841347549</v>
       </c>
       <c r="T4">
-        <v>0.0248072023573946</v>
+        <v>0.0186221784134755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>117.038589</v>
       </c>
       <c r="I5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>1126.06956638663</v>
+        <v>1439.260292054234</v>
       </c>
       <c r="R5">
-        <v>10134.62609747967</v>
+        <v>12953.3426284881</v>
       </c>
       <c r="S5">
-        <v>0.2222606197876887</v>
+        <v>0.2673995092552924</v>
       </c>
       <c r="T5">
-        <v>0.2222606197876887</v>
+        <v>0.2673995092552924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>117.038589</v>
       </c>
       <c r="I6">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J6">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
         <v>1665.083583650762</v>
@@ -818,10 +818,10 @@
         <v>14985.75225285686</v>
       </c>
       <c r="S6">
-        <v>0.3286497747097967</v>
+        <v>0.3093551149818561</v>
       </c>
       <c r="T6">
-        <v>0.3286497747097966</v>
+        <v>0.3093551149818562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>117.038589</v>
       </c>
       <c r="I7">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J7">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
-        <v>930.4807494521696</v>
+        <v>930.4807494521699</v>
       </c>
       <c r="R7">
-        <v>8374.326745069526</v>
+        <v>8374.326745069528</v>
       </c>
       <c r="S7">
-        <v>0.1836558186519229</v>
+        <v>0.1728735914890586</v>
       </c>
       <c r="T7">
-        <v>0.1836558186519229</v>
+        <v>0.1728735914890587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H8">
         <v>26.482702</v>
       </c>
       <c r="I8">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J8">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N8">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O8">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P8">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q8">
-        <v>254.7994213932836</v>
+        <v>325.6661050049504</v>
       </c>
       <c r="R8">
-        <v>2293.194792539553</v>
+        <v>2930.994945044554</v>
       </c>
       <c r="S8">
-        <v>0.05029163296024241</v>
+        <v>0.06050535621677863</v>
       </c>
       <c r="T8">
-        <v>0.0502916329602424</v>
+        <v>0.06050535621677865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H9">
         <v>26.482702</v>
       </c>
       <c r="I9">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J9">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N9">
         <v>128.041122</v>
       </c>
       <c r="O9">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P9">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q9">
-        <v>376.7638752968494</v>
+        <v>376.7638752968492</v>
       </c>
       <c r="R9">
-        <v>3390.874877671644</v>
+        <v>3390.874877671643</v>
       </c>
       <c r="S9">
-        <v>0.0743646528924463</v>
+        <v>0.06999878751306741</v>
       </c>
       <c r="T9">
-        <v>0.07436465289244629</v>
+        <v>0.06999878751306746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H10">
         <v>26.482702</v>
       </c>
       <c r="I10">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J10">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N10">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O10">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P10">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q10">
         <v>210.5429039688651</v>
@@ -1066,10 +1066,10 @@
         <v>1894.886135719786</v>
       </c>
       <c r="S10">
-        <v>0.04155639911144962</v>
+        <v>0.03911666952063542</v>
       </c>
       <c r="T10">
-        <v>0.04155639911144961</v>
+        <v>0.03911666952063544</v>
       </c>
     </row>
   </sheetData>
